--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-材料表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-材料表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\git\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\中石油\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546E994-BD42-47A8-BA86-62AC8D25E4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C81156-5B69-4F8E-9258-6A71649F4229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,36 +19,25 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">[1]eqpmad2!#REF!</definedName>
-    <definedName name="a">[2]!'[程序].backto_menu'</definedName>
-    <definedName name="backto_menu">[3]!backto_menu</definedName>
     <definedName name="C_EN_ShortDesc" localSheetId="2">次页!$D$5</definedName>
     <definedName name="COMPONENT_TYPE" localSheetId="2">#REF!</definedName>
     <definedName name="COMPONENT_TYPE" localSheetId="1">#REF!</definedName>
     <definedName name="COMPONENT_TYPE">#REF!</definedName>
-    <definedName name="data_input">[3]!data_input</definedName>
-    <definedName name="data_save">[3]!data_save</definedName>
     <definedName name="DESCR" localSheetId="2">#REF!</definedName>
     <definedName name="DESCR" localSheetId="1">#REF!</definedName>
     <definedName name="DESCR">#REF!</definedName>
     <definedName name="DesignQty" localSheetId="2">次页!$F$5</definedName>
     <definedName name="ENTETE">#REF!</definedName>
     <definedName name="HWSheet">1</definedName>
-    <definedName name="ifoption">[3]!ifoption</definedName>
-    <definedName name="initbox">[3]!initbox</definedName>
-    <definedName name="input_activate">[2]!input_activate</definedName>
     <definedName name="LOOP" localSheetId="2">#REF!</definedName>
     <definedName name="LOOP" localSheetId="1">#REF!</definedName>
     <definedName name="LOOP">#REF!</definedName>
-    <definedName name="Module.Prix_SMC">[0]!Module.Prix_SMC</definedName>
     <definedName name="MTO_LINE_SECTION" localSheetId="2">#REF!</definedName>
     <definedName name="MTO_LINE_SECTION" localSheetId="1">#REF!</definedName>
     <definedName name="MTO_LINE_SECTION">#REF!</definedName>
-    <definedName name="open_input">[0]!open_input</definedName>
     <definedName name="P_CN_ShortDesc" localSheetId="2">次页!$J$5</definedName>
     <definedName name="P_Code" localSheetId="2">次页!$I$5</definedName>
     <definedName name="P_Code">次页!$K$5</definedName>
@@ -62,7 +51,6 @@
     <definedName name="Print_Area_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">次页!$2:$5</definedName>
     <definedName name="_xlnm.Print_Titles" hidden="1">#N/A</definedName>
-    <definedName name="prn">[2]!prn</definedName>
     <definedName name="QUAN" localSheetId="2">#REF!</definedName>
     <definedName name="QUAN" localSheetId="1">#REF!</definedName>
     <definedName name="QUAN">#REF!</definedName>
@@ -7042,6 +7030,207 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="48">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="58" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="69" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="57" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="62" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="71" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="60" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -7050,206 +7239,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="60" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="62" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="71" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="61" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="58" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="69" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="57" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7291,9 +7282,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="48">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1833">
@@ -9462,60 +9450,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主菜单"/>
-      <sheetName val="中文首页"/>
-      <sheetName val="中文打印样表"/>
-      <sheetName val="英文首页"/>
-      <sheetName val="英文打印样表"/>
-      <sheetName val="输入数据"/>
-      <sheetName val="cpaa32"/>
-      <sheetName val="eqpmad2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="[程序].backto_menu"/>
-      <definedName name="input_activate"/>
-      <definedName name="prn"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TJ008"/>
-      <sheetName val="eqpmad2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="backto_menu"/>
-      <definedName name="data_input"/>
-      <definedName name="data_save"/>
-      <definedName name="ifoption"/>
-      <definedName name="initbox"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -9819,7 +9753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R27" sqref="R27:T27"/>
     </sheetView>
   </sheetViews>
@@ -9836,680 +9770,680 @@
     <row r="2" spans="1:20" ht="30" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="79" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
       <c r="A3" s="27"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="82" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="85" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="87"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="45" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="78"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="71"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="85" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="82" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="77"/>
     </row>
     <row r="9" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
     </row>
     <row r="10" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51"/>
     </row>
     <row r="16" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
     </row>
     <row r="17" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
     </row>
     <row r="18" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
     </row>
     <row r="20" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="58"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
     </row>
     <row r="21" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="58"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
     </row>
     <row r="23" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
     </row>
     <row r="24" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B26" s="32"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
     </row>
     <row r="27" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B27" s="32">
+      <c r="B27" s="85">
         <v>1</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="30">
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="86">
         <v>2019.07</v>
       </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
     </row>
     <row r="28" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="32">
+      <c r="B28" s="85">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="33" t="s">
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="33" t="s">
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="33" t="s">
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="30">
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="86">
         <v>2019.05</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
     </row>
     <row r="29" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="33" t="s">
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33" t="s">
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="33" t="s">
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="30">
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="86">
         <v>2019.03</v>
       </c>
-      <c r="S29" s="30"/>
-      <c r="T29" s="31"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="87"/>
     </row>
     <row r="30" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35" t="s">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35" t="s">
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35" t="s">
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35" t="s">
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35" t="s">
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="84"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10523,17 +10457,20 @@
     <protectedRange sqref="I27:Q29" name="区域1_3"/>
   </protectedRanges>
   <mergeCells count="41">
-    <mergeCell ref="F2:P4"/>
-    <mergeCell ref="F5:P8"/>
-    <mergeCell ref="B9:T25"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="B5:E8"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="R30:T30"/>
@@ -10549,21 +10486,18 @@
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F2:P4"/>
+    <mergeCell ref="F5:P8"/>
+    <mergeCell ref="B9:T25"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="B5:E8"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
   </mergeCells>
   <phoneticPr fontId="124" type="noConversion"/>
   <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="0.71" bottom="0.39" header="2.0099999999999998" footer="0.31"/>
@@ -10598,48 +10532,48 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1"/>
     <row r="2" spans="2:11" ht="30" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="92" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="88" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="89"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="88" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="89"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="91"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -10669,7 +10603,7 @@
       <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="30" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-材料表.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/防腐-材料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\中石油\MaterialCodeSelectionPlatform01\src\MaterialCodeSelectionPlatform\MaterialCodeSelectionPlatform.Web\ReportTemplates\管道综合材料表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C81156-5B69-4F8E-9258-6A71649F4229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF9D25-A4EC-41F4-8E2F-2CF1735A8794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XXXXX" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">[1]eqpmad2!#REF!</definedName>
+    <definedName name="AllowanceQty" localSheetId="2">次页!$H$5</definedName>
     <definedName name="C_EN_ShortDesc" localSheetId="2">次页!$D$5</definedName>
     <definedName name="COMPONENT_TYPE" localSheetId="2">#REF!</definedName>
     <definedName name="COMPONENT_TYPE" localSheetId="1">#REF!</definedName>
@@ -72,12 +73,12 @@
     <definedName name="UNIT_ID" localSheetId="1">#REF!</definedName>
     <definedName name="UNIT_ID">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>中国石油工程建设有限公司</t>
   </si>
@@ -223,6 +224,26 @@
     <t>外发文件号:$DateTime$</t>
     <phoneticPr fontId="124" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审批意见：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ApproveContent$</t>
+    </r>
+    <phoneticPr fontId="124" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +284,7 @@
     <numFmt numFmtId="204" formatCode="_-* #,##0&quot;$&quot;_-;\-* #,##0&quot;$&quot;_-;_-* &quot;-&quot;&quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="205" formatCode="_-* #,##0.00&quot;$&quot;_-;\-* #,##0.00&quot;$&quot;_-;_-* &quot;-&quot;??&quot;$&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="125">
+  <fonts count="127">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1086,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -7033,6 +7066,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="48">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="70" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="60" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="62" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="71" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="61" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -7153,7 +7215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="49" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7212,35 +7274,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1033" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="62" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="71" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="60" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="70" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="61" xfId="1033" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9753,8 +9786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:T27"/>
+    <sheetView zoomScale="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9770,680 +9803,682 @@
     <row r="2" spans="1:20" ht="30" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="72" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="74"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="82"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
       <c r="A3" s="27"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="75" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="85"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="78" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="38" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="71"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="79"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="78" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="80"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="75" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="77"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="48"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
     </row>
     <row r="10" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
     </row>
     <row r="11" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="59"/>
     </row>
     <row r="12" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="59"/>
     </row>
     <row r="13" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="51"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
     </row>
     <row r="14" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="59"/>
     </row>
     <row r="15" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
     </row>
     <row r="16" spans="1:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="59"/>
     </row>
     <row r="17" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="51"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
     </row>
     <row r="18" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="59"/>
     </row>
     <row r="19" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
     </row>
     <row r="20" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="59"/>
     </row>
     <row r="21" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="59"/>
     </row>
     <row r="22" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="51"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="59"/>
     </row>
     <row r="23" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="59"/>
     </row>
     <row r="24" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="51"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="59"/>
     </row>
     <row r="25" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="51"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="59"/>
     </row>
     <row r="26" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
     </row>
     <row r="27" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B27" s="85">
+      <c r="B27" s="35">
         <v>1</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="86">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33">
         <v>2019.07</v>
       </c>
-      <c r="S27" s="86"/>
-      <c r="T27" s="87"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
     </row>
     <row r="28" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="85">
+      <c r="B28" s="35">
         <v>0</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="81" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="81" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="81" t="s">
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="86">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33">
         <v>2019.05</v>
       </c>
-      <c r="S28" s="86"/>
-      <c r="T28" s="87"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="81" t="s">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="81" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="81" t="s">
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="86">
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33">
         <v>2019.03</v>
       </c>
-      <c r="S29" s="86"/>
-      <c r="T29" s="87"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="2:20" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83" t="s">
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83" t="s">
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83" t="s">
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="37"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -10457,22 +10492,19 @@
     <protectedRange sqref="I27:Q29" name="区域1_3"/>
   </protectedRanges>
   <mergeCells count="41">
-    <mergeCell ref="E28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="R26:T26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="F2:P4"/>
+    <mergeCell ref="F5:P8"/>
+    <mergeCell ref="B9:T25"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="B5:E8"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:H29"/>
@@ -10485,19 +10517,22 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="R28:T28"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F2:P4"/>
-    <mergeCell ref="F5:P8"/>
-    <mergeCell ref="B9:T25"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="B5:E8"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="E28:H28"/>
   </mergeCells>
   <phoneticPr fontId="124" type="noConversion"/>
   <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="0.71" bottom="0.39" header="2.0099999999999998" footer="0.31"/>
@@ -10513,8 +10548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
